--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.8252838649532</v>
+        <v>841.4728792860781</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383182</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.64992685920805</v>
+        <v>7.549255196917892</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.86521064033354</v>
+        <v>7.20453102425245</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500.2499999999959</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.06</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>17.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.44700908884931</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.29065144902805</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1104,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1118,26 +1118,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1240,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7200000000003</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2400000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -1262,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4650000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -1273,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.4450000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1284,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3100000000003</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>253.8349999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1306,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>251.0049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1317,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>244.0249999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1328,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>252.9399999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1339,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>248.3199999999991</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1350,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>206.79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -1361,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>205.78</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -1372,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>197.375</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -1383,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>201.415</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -1394,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.0549999999994</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1405,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1416,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1438,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1460,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6150000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1471,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.8100000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1504,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1515,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -1526,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000009</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1537,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000009</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
@@ -1548,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -1559,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000009</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1570,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>253.8349999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1581,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>251.0049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1592,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>244.0249999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>252.9399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1614,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>248.3199999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1716,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1727,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1749,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1760,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1771,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53.83499999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1782,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>51.00499999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1793,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>44.02499999999969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1804,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>52.93999999999969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1815,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.31999999999914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1917,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1928,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1939,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1950,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1961,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2082,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2104,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2115,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2126,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2137,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2148,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2159,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2170,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2208,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2233,7 +2219,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2244,7 +2230,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2255,7 +2241,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2266,7 +2252,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2280,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2291,20 +2277,9 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
